--- a/team_contract/meeting_timeline.xlsx
+++ b/team_contract/meeting_timeline.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>meeting date</t>
   </si>
@@ -43,6 +43,9 @@
   <si>
     <t>first contact
 project choose</t>
+  </si>
+  <si>
+    <t>proposal</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1225,9 @@
       <c r="B1" s="2">
         <v>45940</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2">
+        <v>45955</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1241,7 +1246,9 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1260,7 +1267,9 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
